--- a/feature_labels.xlsx
+++ b/feature_labels.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="26">
   <si>
     <t>6 Measurments per IMU</t>
   </si>
@@ -48,15 +49,6 @@
   </si>
   <si>
     <t>RMS</t>
-  </si>
-  <si>
-    <t>AccelX</t>
-  </si>
-  <si>
-    <t>AccelY</t>
-  </si>
-  <si>
-    <t>AccelZ</t>
   </si>
   <si>
     <t>Thigh_R</t>
@@ -105,6 +97,15 @@
   </si>
   <si>
     <t>Number of unique labels in column I:</t>
+  </si>
+  <si>
+    <t>Accel_X</t>
+  </si>
+  <si>
+    <t>Accel_Y</t>
+  </si>
+  <si>
+    <t>Accel_Z</t>
   </si>
 </sst>
 </file>
@@ -469,7 +470,7 @@
   <dimension ref="D3:K298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B13"/>
+      <selection activeCell="H5" sqref="H5:H298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,14 +494,14 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.2">
@@ -508,23 +509,23 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>CONCATENATE(D5,E5,F5,G5,H5)</f>
         <v>MAX_Thigh_R_Gyro_X</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K5" s="4">
         <f>SUMPRODUCT(1/COUNTIF(I5:I298,I5:I298))</f>
@@ -536,16 +537,16 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" ref="I6:I69" si="0">CONCATENATE(D6,E6,F6,G6,H6)</f>
@@ -557,16 +558,16 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -578,20 +579,20 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Thigh_R_AccelX</v>
+        <v>MAX_Thigh_R_Accel_X</v>
       </c>
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.2">
@@ -599,20 +600,20 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Thigh_R_AccelY</v>
+        <v>MAX_Thigh_R_Accel_Y</v>
       </c>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.2">
@@ -620,20 +621,20 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Thigh_R_AccelZ</v>
+        <v>MAX_Thigh_R_Accel_Z</v>
       </c>
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.2">
@@ -641,16 +642,16 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -662,16 +663,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -683,16 +684,16 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -704,20 +705,20 @@
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Shank_R_AccelX</v>
+        <v>MAX_Shank_R_Accel_X</v>
       </c>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.2">
@@ -725,20 +726,20 @@
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Shank_R_AccelY</v>
+        <v>MAX_Shank_R_Accel_Y</v>
       </c>
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.2">
@@ -746,20 +747,20 @@
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Shank_R_AccelZ</v>
+        <v>MAX_Shank_R_Accel_Z</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.2">
@@ -767,16 +768,16 @@
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -788,16 +789,16 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -809,16 +810,16 @@
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -830,20 +831,20 @@
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Foot_R_AccelX</v>
+        <v>MAX_Foot_R_Accel_X</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.2">
@@ -851,20 +852,20 @@
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Foot_R_AccelY</v>
+        <v>MAX_Foot_R_Accel_Y</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.2">
@@ -872,20 +873,20 @@
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Foot_R_AccelZ</v>
+        <v>MAX_Foot_R_Accel_Z</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.2">
@@ -893,16 +894,16 @@
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -914,16 +915,16 @@
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -935,16 +936,16 @@
         <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -956,20 +957,20 @@
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Thigh_L_AccelX</v>
+        <v>MAX_Thigh_L_Accel_X</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.2">
@@ -977,20 +978,20 @@
         <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Thigh_L_AccelY</v>
+        <v>MAX_Thigh_L_Accel_Y</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.2">
@@ -998,20 +999,20 @@
         <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Thigh_L_AccelZ</v>
+        <v>MAX_Thigh_L_Accel_Z</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.2">
@@ -1019,16 +1020,16 @@
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1040,16 +1041,16 @@
         <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1061,16 +1062,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1082,20 +1083,20 @@
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Shank_L_AccelX</v>
+        <v>MAX_Shank_L_Accel_X</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.2">
@@ -1103,20 +1104,20 @@
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Shank_L_AccelY</v>
+        <v>MAX_Shank_L_Accel_Y</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.2">
@@ -1124,20 +1125,20 @@
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Shank_L_AccelZ</v>
+        <v>MAX_Shank_L_Accel_Z</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.2">
@@ -1145,16 +1146,16 @@
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1166,16 +1167,16 @@
         <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1187,16 +1188,16 @@
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1208,20 +1209,20 @@
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Foot_L_AccelX</v>
+        <v>MAX_Foot_L_Accel_X</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
@@ -1229,20 +1230,20 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Foot_L_AccelY</v>
+        <v>MAX_Foot_L_Accel_Y</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.2">
@@ -1250,20 +1251,20 @@
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Foot_L_AccelZ</v>
+        <v>MAX_Foot_L_Accel_Z</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.2">
@@ -1271,16 +1272,16 @@
         <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1292,16 +1293,16 @@
         <v>2</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1313,16 +1314,16 @@
         <v>2</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1334,20 +1335,20 @@
         <v>2</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Pelvis_AccelX</v>
+        <v>MAX_Pelvis_Accel_X</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.2">
@@ -1355,20 +1356,20 @@
         <v>2</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Pelvis_AccelY</v>
+        <v>MAX_Pelvis_Accel_Y</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.2">
@@ -1376,20 +1377,20 @@
         <v>2</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MAX_Pelvis_AccelZ</v>
+        <v>MAX_Pelvis_Accel_Z</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.2">
@@ -1397,16 +1398,16 @@
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I47" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1418,16 +1419,16 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I48" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1439,16 +1440,16 @@
         <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I49" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1460,20 +1461,20 @@
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MIN_Thigh_R_AccelX</v>
+        <v>MIN_Thigh_R_Accel_X</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.2">
@@ -1481,20 +1482,20 @@
         <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MIN_Thigh_R_AccelY</v>
+        <v>MIN_Thigh_R_Accel_Y</v>
       </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.2">
@@ -1502,20 +1503,20 @@
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MIN_Thigh_R_AccelZ</v>
+        <v>MIN_Thigh_R_Accel_Z</v>
       </c>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.2">
@@ -1523,16 +1524,16 @@
         <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I53" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1544,16 +1545,16 @@
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I54" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1565,16 +1566,16 @@
         <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I55" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1586,20 +1587,20 @@
         <v>3</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MIN_Shank_R_AccelX</v>
+        <v>MIN_Shank_R_Accel_X</v>
       </c>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.2">
@@ -1607,20 +1608,20 @@
         <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MIN_Shank_R_AccelY</v>
+        <v>MIN_Shank_R_Accel_Y</v>
       </c>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.2">
@@ -1628,20 +1629,20 @@
         <v>3</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MIN_Shank_R_AccelZ</v>
+        <v>MIN_Shank_R_Accel_Z</v>
       </c>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.2">
@@ -1649,16 +1650,16 @@
         <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I59" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1670,16 +1671,16 @@
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I60" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1691,16 +1692,16 @@
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I61" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1712,20 +1713,20 @@
         <v>3</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MIN_Foot_R_AccelX</v>
+        <v>MIN_Foot_R_Accel_X</v>
       </c>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.2">
@@ -1733,20 +1734,20 @@
         <v>3</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MIN_Foot_R_AccelY</v>
+        <v>MIN_Foot_R_Accel_Y</v>
       </c>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.2">
@@ -1754,20 +1755,20 @@
         <v>3</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MIN_Foot_R_AccelZ</v>
+        <v>MIN_Foot_R_Accel_Z</v>
       </c>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.2">
@@ -1775,16 +1776,16 @@
         <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I65" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1796,16 +1797,16 @@
         <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I66" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1817,16 +1818,16 @@
         <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I67" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1838,20 +1839,20 @@
         <v>3</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I68" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MIN_Thigh_L_AccelX</v>
+        <v>MIN_Thigh_L_Accel_X</v>
       </c>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.2">
@@ -1859,20 +1860,20 @@
         <v>3</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I69" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MIN_Thigh_L_AccelY</v>
+        <v>MIN_Thigh_L_Accel_Y</v>
       </c>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.2">
@@ -1880,20 +1881,20 @@
         <v>3</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I70" s="1" t="str">
         <f t="shared" ref="I70:I133" si="1">CONCATENATE(D70,E70,F70,G70,H70)</f>
-        <v>MIN_Thigh_L_AccelZ</v>
+        <v>MIN_Thigh_L_Accel_Z</v>
       </c>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.2">
@@ -1901,16 +1902,16 @@
         <v>3</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I71" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1922,16 +1923,16 @@
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I72" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1943,16 +1944,16 @@
         <v>3</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I73" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1964,20 +1965,20 @@
         <v>3</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I74" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MIN_Shank_L_AccelX</v>
+        <v>MIN_Shank_L_Accel_X</v>
       </c>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.2">
@@ -1985,20 +1986,20 @@
         <v>3</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I75" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MIN_Shank_L_AccelY</v>
+        <v>MIN_Shank_L_Accel_Y</v>
       </c>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.2">
@@ -2006,20 +2007,20 @@
         <v>3</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I76" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MIN_Shank_L_AccelZ</v>
+        <v>MIN_Shank_L_Accel_Z</v>
       </c>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.2">
@@ -2027,16 +2028,16 @@
         <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I77" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2048,16 +2049,16 @@
         <v>3</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I78" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2069,16 +2070,16 @@
         <v>3</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I79" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2090,20 +2091,20 @@
         <v>3</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I80" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MIN_Foot_L_AccelX</v>
+        <v>MIN_Foot_L_Accel_X</v>
       </c>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.2">
@@ -2111,20 +2112,20 @@
         <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I81" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MIN_Foot_L_AccelY</v>
+        <v>MIN_Foot_L_Accel_Y</v>
       </c>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.2">
@@ -2132,20 +2133,20 @@
         <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I82" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MIN_Foot_L_AccelZ</v>
+        <v>MIN_Foot_L_Accel_Z</v>
       </c>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.2">
@@ -2153,16 +2154,16 @@
         <v>3</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I83" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2174,16 +2175,16 @@
         <v>3</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I84" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2195,16 +2196,16 @@
         <v>3</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I85" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2216,20 +2217,20 @@
         <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I86" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MIN_Pelvis_AccelX</v>
+        <v>MIN_Pelvis_Accel_X</v>
       </c>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.2">
@@ -2237,20 +2238,20 @@
         <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I87" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MIN_Pelvis_AccelY</v>
+        <v>MIN_Pelvis_Accel_Y</v>
       </c>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.2">
@@ -2258,20 +2259,20 @@
         <v>3</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I88" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MIN_Pelvis_AccelZ</v>
+        <v>MIN_Pelvis_Accel_Z</v>
       </c>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.2">
@@ -2279,16 +2280,16 @@
         <v>4</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I89" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2300,16 +2301,16 @@
         <v>4</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I90" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2321,16 +2322,16 @@
         <v>4</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I91" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2342,20 +2343,20 @@
         <v>4</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I92" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Thigh_R_AccelX</v>
+        <v>AVG_Thigh_R_Accel_X</v>
       </c>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.2">
@@ -2363,20 +2364,20 @@
         <v>4</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I93" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Thigh_R_AccelY</v>
+        <v>AVG_Thigh_R_Accel_Y</v>
       </c>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.2">
@@ -2384,20 +2385,20 @@
         <v>4</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I94" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Thigh_R_AccelZ</v>
+        <v>AVG_Thigh_R_Accel_Z</v>
       </c>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.2">
@@ -2405,16 +2406,16 @@
         <v>4</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I95" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2426,16 +2427,16 @@
         <v>4</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I96" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2447,16 +2448,16 @@
         <v>4</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I97" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2468,20 +2469,20 @@
         <v>4</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I98" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Shank_R_AccelX</v>
+        <v>AVG_Shank_R_Accel_X</v>
       </c>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.2">
@@ -2489,20 +2490,20 @@
         <v>4</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I99" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Shank_R_AccelY</v>
+        <v>AVG_Shank_R_Accel_Y</v>
       </c>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.2">
@@ -2510,20 +2511,20 @@
         <v>4</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I100" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Shank_R_AccelZ</v>
+        <v>AVG_Shank_R_Accel_Z</v>
       </c>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.2">
@@ -2531,16 +2532,16 @@
         <v>4</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I101" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2552,16 +2553,16 @@
         <v>4</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I102" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2573,16 +2574,16 @@
         <v>4</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I103" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2594,20 +2595,20 @@
         <v>4</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I104" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Foot_R_AccelX</v>
+        <v>AVG_Foot_R_Accel_X</v>
       </c>
     </row>
     <row r="105" spans="4:9" x14ac:dyDescent="0.2">
@@ -2615,20 +2616,20 @@
         <v>4</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I105" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Foot_R_AccelY</v>
+        <v>AVG_Foot_R_Accel_Y</v>
       </c>
     </row>
     <row r="106" spans="4:9" x14ac:dyDescent="0.2">
@@ -2636,20 +2637,20 @@
         <v>4</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I106" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Foot_R_AccelZ</v>
+        <v>AVG_Foot_R_Accel_Z</v>
       </c>
     </row>
     <row r="107" spans="4:9" x14ac:dyDescent="0.2">
@@ -2657,16 +2658,16 @@
         <v>4</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I107" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2678,16 +2679,16 @@
         <v>4</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I108" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2699,16 +2700,16 @@
         <v>4</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I109" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2720,20 +2721,20 @@
         <v>4</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I110" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Thigh_L_AccelX</v>
+        <v>AVG_Thigh_L_Accel_X</v>
       </c>
     </row>
     <row r="111" spans="4:9" x14ac:dyDescent="0.2">
@@ -2741,20 +2742,20 @@
         <v>4</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I111" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Thigh_L_AccelY</v>
+        <v>AVG_Thigh_L_Accel_Y</v>
       </c>
     </row>
     <row r="112" spans="4:9" x14ac:dyDescent="0.2">
@@ -2762,20 +2763,20 @@
         <v>4</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I112" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Thigh_L_AccelZ</v>
+        <v>AVG_Thigh_L_Accel_Z</v>
       </c>
     </row>
     <row r="113" spans="4:9" x14ac:dyDescent="0.2">
@@ -2783,16 +2784,16 @@
         <v>4</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I113" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2804,16 +2805,16 @@
         <v>4</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I114" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2825,16 +2826,16 @@
         <v>4</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I115" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2846,20 +2847,20 @@
         <v>4</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I116" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Shank_L_AccelX</v>
+        <v>AVG_Shank_L_Accel_X</v>
       </c>
     </row>
     <row r="117" spans="4:9" x14ac:dyDescent="0.2">
@@ -2867,20 +2868,20 @@
         <v>4</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I117" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Shank_L_AccelY</v>
+        <v>AVG_Shank_L_Accel_Y</v>
       </c>
     </row>
     <row r="118" spans="4:9" x14ac:dyDescent="0.2">
@@ -2888,20 +2889,20 @@
         <v>4</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I118" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Shank_L_AccelZ</v>
+        <v>AVG_Shank_L_Accel_Z</v>
       </c>
     </row>
     <row r="119" spans="4:9" x14ac:dyDescent="0.2">
@@ -2909,16 +2910,16 @@
         <v>4</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I119" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2930,16 +2931,16 @@
         <v>4</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I120" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2951,16 +2952,16 @@
         <v>4</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I121" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2972,20 +2973,20 @@
         <v>4</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I122" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Foot_L_AccelX</v>
+        <v>AVG_Foot_L_Accel_X</v>
       </c>
     </row>
     <row r="123" spans="4:9" x14ac:dyDescent="0.2">
@@ -2993,20 +2994,20 @@
         <v>4</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I123" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Foot_L_AccelY</v>
+        <v>AVG_Foot_L_Accel_Y</v>
       </c>
     </row>
     <row r="124" spans="4:9" x14ac:dyDescent="0.2">
@@ -3014,20 +3015,20 @@
         <v>4</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I124" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Foot_L_AccelZ</v>
+        <v>AVG_Foot_L_Accel_Z</v>
       </c>
     </row>
     <row r="125" spans="4:9" x14ac:dyDescent="0.2">
@@ -3035,16 +3036,16 @@
         <v>4</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I125" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3056,16 +3057,16 @@
         <v>4</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I126" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3077,16 +3078,16 @@
         <v>4</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I127" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3098,20 +3099,20 @@
         <v>4</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I128" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Pelvis_AccelX</v>
+        <v>AVG_Pelvis_Accel_X</v>
       </c>
     </row>
     <row r="129" spans="4:9" x14ac:dyDescent="0.2">
@@ -3119,20 +3120,20 @@
         <v>4</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I129" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Pelvis_AccelY</v>
+        <v>AVG_Pelvis_Accel_Y</v>
       </c>
     </row>
     <row r="130" spans="4:9" x14ac:dyDescent="0.2">
@@ -3140,20 +3141,20 @@
         <v>4</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I130" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>AVG_Pelvis_AccelZ</v>
+        <v>AVG_Pelvis_Accel_Z</v>
       </c>
     </row>
     <row r="131" spans="4:9" x14ac:dyDescent="0.2">
@@ -3161,16 +3162,16 @@
         <v>5</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I131" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3182,16 +3183,16 @@
         <v>5</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I132" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3203,16 +3204,16 @@
         <v>5</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I133" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3224,20 +3225,20 @@
         <v>5</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I134" s="1" t="str">
         <f t="shared" ref="I134:I197" si="2">CONCATENATE(D134,E134,F134,G134,H134)</f>
-        <v>SD_Thigh_R_AccelX</v>
+        <v>SD_Thigh_R_Accel_X</v>
       </c>
     </row>
     <row r="135" spans="4:9" x14ac:dyDescent="0.2">
@@ -3245,20 +3246,20 @@
         <v>5</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I135" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Thigh_R_AccelY</v>
+        <v>SD_Thigh_R_Accel_Y</v>
       </c>
     </row>
     <row r="136" spans="4:9" x14ac:dyDescent="0.2">
@@ -3266,20 +3267,20 @@
         <v>5</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I136" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Thigh_R_AccelZ</v>
+        <v>SD_Thigh_R_Accel_Z</v>
       </c>
     </row>
     <row r="137" spans="4:9" x14ac:dyDescent="0.2">
@@ -3287,16 +3288,16 @@
         <v>5</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I137" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3308,16 +3309,16 @@
         <v>5</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I138" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3329,16 +3330,16 @@
         <v>5</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I139" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3350,20 +3351,20 @@
         <v>5</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I140" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Shank_R_AccelX</v>
+        <v>SD_Shank_R_Accel_X</v>
       </c>
     </row>
     <row r="141" spans="4:9" x14ac:dyDescent="0.2">
@@ -3371,20 +3372,20 @@
         <v>5</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I141" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Shank_R_AccelY</v>
+        <v>SD_Shank_R_Accel_Y</v>
       </c>
     </row>
     <row r="142" spans="4:9" x14ac:dyDescent="0.2">
@@ -3392,20 +3393,20 @@
         <v>5</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I142" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Shank_R_AccelZ</v>
+        <v>SD_Shank_R_Accel_Z</v>
       </c>
     </row>
     <row r="143" spans="4:9" x14ac:dyDescent="0.2">
@@ -3413,16 +3414,16 @@
         <v>5</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I143" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3434,16 +3435,16 @@
         <v>5</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I144" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3455,16 +3456,16 @@
         <v>5</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I145" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3476,20 +3477,20 @@
         <v>5</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I146" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Foot_R_AccelX</v>
+        <v>SD_Foot_R_Accel_X</v>
       </c>
     </row>
     <row r="147" spans="4:9" x14ac:dyDescent="0.2">
@@ -3497,20 +3498,20 @@
         <v>5</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I147" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Foot_R_AccelY</v>
+        <v>SD_Foot_R_Accel_Y</v>
       </c>
     </row>
     <row r="148" spans="4:9" x14ac:dyDescent="0.2">
@@ -3518,20 +3519,20 @@
         <v>5</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I148" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Foot_R_AccelZ</v>
+        <v>SD_Foot_R_Accel_Z</v>
       </c>
     </row>
     <row r="149" spans="4:9" x14ac:dyDescent="0.2">
@@ -3539,16 +3540,16 @@
         <v>5</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I149" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3560,16 +3561,16 @@
         <v>5</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I150" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3581,16 +3582,16 @@
         <v>5</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I151" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3602,20 +3603,20 @@
         <v>5</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I152" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Thigh_L_AccelX</v>
+        <v>SD_Thigh_L_Accel_X</v>
       </c>
     </row>
     <row r="153" spans="4:9" x14ac:dyDescent="0.2">
@@ -3623,20 +3624,20 @@
         <v>5</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I153" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Thigh_L_AccelY</v>
+        <v>SD_Thigh_L_Accel_Y</v>
       </c>
     </row>
     <row r="154" spans="4:9" x14ac:dyDescent="0.2">
@@ -3644,20 +3645,20 @@
         <v>5</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I154" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Thigh_L_AccelZ</v>
+        <v>SD_Thigh_L_Accel_Z</v>
       </c>
     </row>
     <row r="155" spans="4:9" x14ac:dyDescent="0.2">
@@ -3665,16 +3666,16 @@
         <v>5</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I155" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3686,16 +3687,16 @@
         <v>5</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I156" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3707,16 +3708,16 @@
         <v>5</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I157" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3728,20 +3729,20 @@
         <v>5</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I158" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Shank_L_AccelX</v>
+        <v>SD_Shank_L_Accel_X</v>
       </c>
     </row>
     <row r="159" spans="4:9" x14ac:dyDescent="0.2">
@@ -3749,20 +3750,20 @@
         <v>5</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I159" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Shank_L_AccelY</v>
+        <v>SD_Shank_L_Accel_Y</v>
       </c>
     </row>
     <row r="160" spans="4:9" x14ac:dyDescent="0.2">
@@ -3770,20 +3771,20 @@
         <v>5</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I160" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Shank_L_AccelZ</v>
+        <v>SD_Shank_L_Accel_Z</v>
       </c>
     </row>
     <row r="161" spans="4:9" x14ac:dyDescent="0.2">
@@ -3791,16 +3792,16 @@
         <v>5</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I161" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3812,16 +3813,16 @@
         <v>5</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I162" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3833,16 +3834,16 @@
         <v>5</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I163" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3854,20 +3855,20 @@
         <v>5</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I164" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Foot_L_AccelX</v>
+        <v>SD_Foot_L_Accel_X</v>
       </c>
     </row>
     <row r="165" spans="4:9" x14ac:dyDescent="0.2">
@@ -3875,20 +3876,20 @@
         <v>5</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I165" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Foot_L_AccelY</v>
+        <v>SD_Foot_L_Accel_Y</v>
       </c>
     </row>
     <row r="166" spans="4:9" x14ac:dyDescent="0.2">
@@ -3896,20 +3897,20 @@
         <v>5</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I166" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Foot_L_AccelZ</v>
+        <v>SD_Foot_L_Accel_Z</v>
       </c>
     </row>
     <row r="167" spans="4:9" x14ac:dyDescent="0.2">
@@ -3917,16 +3918,16 @@
         <v>5</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I167" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3938,16 +3939,16 @@
         <v>5</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I168" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3959,16 +3960,16 @@
         <v>5</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I169" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3980,20 +3981,20 @@
         <v>5</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I170" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Pelvis_AccelX</v>
+        <v>SD_Pelvis_Accel_X</v>
       </c>
     </row>
     <row r="171" spans="4:9" x14ac:dyDescent="0.2">
@@ -4001,20 +4002,20 @@
         <v>5</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I171" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Pelvis_AccelY</v>
+        <v>SD_Pelvis_Accel_Y</v>
       </c>
     </row>
     <row r="172" spans="4:9" x14ac:dyDescent="0.2">
@@ -4022,20 +4023,20 @@
         <v>5</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I172" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SD_Pelvis_AccelZ</v>
+        <v>SD_Pelvis_Accel_Z</v>
       </c>
     </row>
     <row r="173" spans="4:9" x14ac:dyDescent="0.2">
@@ -4043,16 +4044,16 @@
         <v>6</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I173" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4064,16 +4065,16 @@
         <v>6</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I174" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4085,16 +4086,16 @@
         <v>6</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I175" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4106,20 +4107,20 @@
         <v>6</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I176" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RMS_Thigh_R_AccelX</v>
+        <v>RMS_Thigh_R_Accel_X</v>
       </c>
     </row>
     <row r="177" spans="4:9" x14ac:dyDescent="0.2">
@@ -4127,20 +4128,20 @@
         <v>6</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I177" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RMS_Thigh_R_AccelY</v>
+        <v>RMS_Thigh_R_Accel_Y</v>
       </c>
     </row>
     <row r="178" spans="4:9" x14ac:dyDescent="0.2">
@@ -4148,20 +4149,20 @@
         <v>6</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I178" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RMS_Thigh_R_AccelZ</v>
+        <v>RMS_Thigh_R_Accel_Z</v>
       </c>
     </row>
     <row r="179" spans="4:9" x14ac:dyDescent="0.2">
@@ -4169,16 +4170,16 @@
         <v>6</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I179" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4190,16 +4191,16 @@
         <v>6</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I180" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4211,16 +4212,16 @@
         <v>6</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I181" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4232,20 +4233,20 @@
         <v>6</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I182" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RMS_Shank_R_AccelX</v>
+        <v>RMS_Shank_R_Accel_X</v>
       </c>
     </row>
     <row r="183" spans="4:9" x14ac:dyDescent="0.2">
@@ -4253,20 +4254,20 @@
         <v>6</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I183" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RMS_Shank_R_AccelY</v>
+        <v>RMS_Shank_R_Accel_Y</v>
       </c>
     </row>
     <row r="184" spans="4:9" x14ac:dyDescent="0.2">
@@ -4274,20 +4275,20 @@
         <v>6</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I184" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RMS_Shank_R_AccelZ</v>
+        <v>RMS_Shank_R_Accel_Z</v>
       </c>
     </row>
     <row r="185" spans="4:9" x14ac:dyDescent="0.2">
@@ -4295,16 +4296,16 @@
         <v>6</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I185" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4316,16 +4317,16 @@
         <v>6</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I186" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4337,16 +4338,16 @@
         <v>6</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I187" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4358,20 +4359,20 @@
         <v>6</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I188" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RMS_Foot_R_AccelX</v>
+        <v>RMS_Foot_R_Accel_X</v>
       </c>
     </row>
     <row r="189" spans="4:9" x14ac:dyDescent="0.2">
@@ -4379,20 +4380,20 @@
         <v>6</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I189" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RMS_Foot_R_AccelY</v>
+        <v>RMS_Foot_R_Accel_Y</v>
       </c>
     </row>
     <row r="190" spans="4:9" x14ac:dyDescent="0.2">
@@ -4400,20 +4401,20 @@
         <v>6</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I190" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RMS_Foot_R_AccelZ</v>
+        <v>RMS_Foot_R_Accel_Z</v>
       </c>
     </row>
     <row r="191" spans="4:9" x14ac:dyDescent="0.2">
@@ -4421,16 +4422,16 @@
         <v>6</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I191" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4442,16 +4443,16 @@
         <v>6</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I192" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4463,16 +4464,16 @@
         <v>6</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I193" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4484,20 +4485,20 @@
         <v>6</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I194" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RMS_Thigh_L_AccelX</v>
+        <v>RMS_Thigh_L_Accel_X</v>
       </c>
     </row>
     <row r="195" spans="4:9" x14ac:dyDescent="0.2">
@@ -4505,20 +4506,20 @@
         <v>6</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I195" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RMS_Thigh_L_AccelY</v>
+        <v>RMS_Thigh_L_Accel_Y</v>
       </c>
     </row>
     <row r="196" spans="4:9" x14ac:dyDescent="0.2">
@@ -4526,20 +4527,20 @@
         <v>6</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I196" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RMS_Thigh_L_AccelZ</v>
+        <v>RMS_Thigh_L_Accel_Z</v>
       </c>
     </row>
     <row r="197" spans="4:9" x14ac:dyDescent="0.2">
@@ -4547,16 +4548,16 @@
         <v>6</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I197" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4568,16 +4569,16 @@
         <v>6</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I198" s="1" t="str">
         <f t="shared" ref="I198:I261" si="3">CONCATENATE(D198,E198,F198,G198,H198)</f>
@@ -4589,16 +4590,16 @@
         <v>6</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I199" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4610,20 +4611,20 @@
         <v>6</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I200" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RMS_Shank_L_AccelX</v>
+        <v>RMS_Shank_L_Accel_X</v>
       </c>
     </row>
     <row r="201" spans="4:9" x14ac:dyDescent="0.2">
@@ -4631,20 +4632,20 @@
         <v>6</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I201" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RMS_Shank_L_AccelY</v>
+        <v>RMS_Shank_L_Accel_Y</v>
       </c>
     </row>
     <row r="202" spans="4:9" x14ac:dyDescent="0.2">
@@ -4652,20 +4653,20 @@
         <v>6</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I202" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RMS_Shank_L_AccelZ</v>
+        <v>RMS_Shank_L_Accel_Z</v>
       </c>
     </row>
     <row r="203" spans="4:9" x14ac:dyDescent="0.2">
@@ -4673,16 +4674,16 @@
         <v>6</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I203" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4694,16 +4695,16 @@
         <v>6</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I204" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4715,16 +4716,16 @@
         <v>6</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I205" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4736,20 +4737,20 @@
         <v>6</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I206" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RMS_Foot_L_AccelX</v>
+        <v>RMS_Foot_L_Accel_X</v>
       </c>
     </row>
     <row r="207" spans="4:9" x14ac:dyDescent="0.2">
@@ -4757,20 +4758,20 @@
         <v>6</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I207" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RMS_Foot_L_AccelY</v>
+        <v>RMS_Foot_L_Accel_Y</v>
       </c>
     </row>
     <row r="208" spans="4:9" x14ac:dyDescent="0.2">
@@ -4778,20 +4779,20 @@
         <v>6</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I208" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RMS_Foot_L_AccelZ</v>
+        <v>RMS_Foot_L_Accel_Z</v>
       </c>
     </row>
     <row r="209" spans="4:9" x14ac:dyDescent="0.2">
@@ -4799,16 +4800,16 @@
         <v>6</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I209" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4820,16 +4821,16 @@
         <v>6</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I210" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4841,16 +4842,16 @@
         <v>6</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I211" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4862,20 +4863,20 @@
         <v>6</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I212" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RMS_Pelvis_AccelX</v>
+        <v>RMS_Pelvis_Accel_X</v>
       </c>
     </row>
     <row r="213" spans="4:9" x14ac:dyDescent="0.2">
@@ -4883,20 +4884,20 @@
         <v>6</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I213" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RMS_Pelvis_AccelY</v>
+        <v>RMS_Pelvis_Accel_Y</v>
       </c>
     </row>
     <row r="214" spans="4:9" x14ac:dyDescent="0.2">
@@ -4904,37 +4905,37 @@
         <v>6</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I214" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RMS_Pelvis_AccelZ</v>
+        <v>RMS_Pelvis_Accel_Z</v>
       </c>
     </row>
     <row r="215" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D215" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I215" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4943,19 +4944,19 @@
     </row>
     <row r="216" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D216" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I216" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4964,19 +4965,19 @@
     </row>
     <row r="217" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D217" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I217" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4985,82 +4986,82 @@
     </row>
     <row r="218" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D218" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I218" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Thigh_R_AccelX</v>
+        <v>ZC_Thigh_R_Accel_X</v>
       </c>
     </row>
     <row r="219" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D219" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I219" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Thigh_R_AccelY</v>
+        <v>ZC_Thigh_R_Accel_Y</v>
       </c>
     </row>
     <row r="220" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D220" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I220" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Thigh_R_AccelZ</v>
+        <v>ZC_Thigh_R_Accel_Z</v>
       </c>
     </row>
     <row r="221" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D221" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I221" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5069,19 +5070,19 @@
     </row>
     <row r="222" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D222" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I222" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5090,19 +5091,19 @@
     </row>
     <row r="223" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D223" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I223" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5111,82 +5112,82 @@
     </row>
     <row r="224" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D224" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I224" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Shank_R_AccelX</v>
+        <v>ZC_Shank_R_Accel_X</v>
       </c>
     </row>
     <row r="225" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D225" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I225" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Shank_R_AccelY</v>
+        <v>ZC_Shank_R_Accel_Y</v>
       </c>
     </row>
     <row r="226" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D226" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I226" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Shank_R_AccelZ</v>
+        <v>ZC_Shank_R_Accel_Z</v>
       </c>
     </row>
     <row r="227" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D227" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I227" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5195,19 +5196,19 @@
     </row>
     <row r="228" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D228" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I228" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5216,19 +5217,19 @@
     </row>
     <row r="229" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D229" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I229" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5237,82 +5238,82 @@
     </row>
     <row r="230" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D230" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I230" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Foot_R_AccelX</v>
+        <v>ZC_Foot_R_Accel_X</v>
       </c>
     </row>
     <row r="231" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D231" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I231" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Foot_R_AccelY</v>
+        <v>ZC_Foot_R_Accel_Y</v>
       </c>
     </row>
     <row r="232" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D232" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I232" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Foot_R_AccelZ</v>
+        <v>ZC_Foot_R_Accel_Z</v>
       </c>
     </row>
     <row r="233" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D233" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I233" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5321,19 +5322,19 @@
     </row>
     <row r="234" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D234" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I234" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5342,19 +5343,19 @@
     </row>
     <row r="235" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D235" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I235" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5363,82 +5364,82 @@
     </row>
     <row r="236" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D236" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I236" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Thigh_L_AccelX</v>
+        <v>ZC_Thigh_L_Accel_X</v>
       </c>
     </row>
     <row r="237" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D237" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I237" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Thigh_L_AccelY</v>
+        <v>ZC_Thigh_L_Accel_Y</v>
       </c>
     </row>
     <row r="238" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D238" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I238" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Thigh_L_AccelZ</v>
+        <v>ZC_Thigh_L_Accel_Z</v>
       </c>
     </row>
     <row r="239" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D239" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I239" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5447,19 +5448,19 @@
     </row>
     <row r="240" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D240" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I240" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5468,19 +5469,19 @@
     </row>
     <row r="241" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D241" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I241" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5489,82 +5490,82 @@
     </row>
     <row r="242" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D242" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I242" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Shank_L_AccelX</v>
+        <v>ZC_Shank_L_Accel_X</v>
       </c>
     </row>
     <row r="243" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D243" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I243" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Shank_L_AccelY</v>
+        <v>ZC_Shank_L_Accel_Y</v>
       </c>
     </row>
     <row r="244" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D244" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I244" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Shank_L_AccelZ</v>
+        <v>ZC_Shank_L_Accel_Z</v>
       </c>
     </row>
     <row r="245" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D245" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I245" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5573,19 +5574,19 @@
     </row>
     <row r="246" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D246" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I246" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5594,19 +5595,19 @@
     </row>
     <row r="247" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D247" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I247" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5615,82 +5616,82 @@
     </row>
     <row r="248" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D248" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I248" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Foot_L_AccelX</v>
+        <v>ZC_Foot_L_Accel_X</v>
       </c>
     </row>
     <row r="249" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D249" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I249" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Foot_L_AccelY</v>
+        <v>ZC_Foot_L_Accel_Y</v>
       </c>
     </row>
     <row r="250" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D250" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I250" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Foot_L_AccelZ</v>
+        <v>ZC_Foot_L_Accel_Z</v>
       </c>
     </row>
     <row r="251" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D251" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I251" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5699,19 +5700,19 @@
     </row>
     <row r="252" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D252" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I252" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5720,19 +5721,19 @@
     </row>
     <row r="253" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D253" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I253" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5741,82 +5742,82 @@
     </row>
     <row r="254" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D254" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I254" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Pelvis_AccelX</v>
+        <v>ZC_Pelvis_Accel_X</v>
       </c>
     </row>
     <row r="255" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D255" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I255" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Pelvis_AccelY</v>
+        <v>ZC_Pelvis_Accel_Y</v>
       </c>
     </row>
     <row r="256" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D256" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I256" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ZC_Pelvis_AccelZ</v>
+        <v>ZC_Pelvis_Accel_Z</v>
       </c>
     </row>
     <row r="257" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D257" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I257" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5825,19 +5826,19 @@
     </row>
     <row r="258" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D258" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I258" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5846,19 +5847,19 @@
     </row>
     <row r="259" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D259" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I259" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5867,82 +5868,82 @@
     </row>
     <row r="260" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D260" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I260" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>MSC_Thigh_R_AccelX</v>
+        <v>MSC_Thigh_R_Accel_X</v>
       </c>
     </row>
     <row r="261" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D261" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I261" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>MSC_Thigh_R_AccelY</v>
+        <v>MSC_Thigh_R_Accel_Y</v>
       </c>
     </row>
     <row r="262" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D262" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I262" s="1" t="str">
         <f t="shared" ref="I262:I298" si="4">CONCATENATE(D262,E262,F262,G262,H262)</f>
-        <v>MSC_Thigh_R_AccelZ</v>
+        <v>MSC_Thigh_R_Accel_Z</v>
       </c>
     </row>
     <row r="263" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D263" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I263" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5951,19 +5952,19 @@
     </row>
     <row r="264" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D264" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I264" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5972,19 +5973,19 @@
     </row>
     <row r="265" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D265" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I265" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5993,82 +5994,82 @@
     </row>
     <row r="266" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D266" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I266" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MSC_Shank_R_AccelX</v>
+        <v>MSC_Shank_R_Accel_X</v>
       </c>
     </row>
     <row r="267" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D267" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I267" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MSC_Shank_R_AccelY</v>
+        <v>MSC_Shank_R_Accel_Y</v>
       </c>
     </row>
     <row r="268" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D268" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I268" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MSC_Shank_R_AccelZ</v>
+        <v>MSC_Shank_R_Accel_Z</v>
       </c>
     </row>
     <row r="269" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D269" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I269" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6077,19 +6078,19 @@
     </row>
     <row r="270" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D270" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I270" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6098,19 +6099,19 @@
     </row>
     <row r="271" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D271" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I271" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6119,82 +6120,82 @@
     </row>
     <row r="272" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D272" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I272" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MSC_Foot_R_AccelX</v>
+        <v>MSC_Foot_R_Accel_X</v>
       </c>
     </row>
     <row r="273" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D273" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I273" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MSC_Foot_R_AccelY</v>
+        <v>MSC_Foot_R_Accel_Y</v>
       </c>
     </row>
     <row r="274" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D274" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I274" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MSC_Foot_R_AccelZ</v>
+        <v>MSC_Foot_R_Accel_Z</v>
       </c>
     </row>
     <row r="275" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D275" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I275" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6203,19 +6204,19 @@
     </row>
     <row r="276" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D276" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I276" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6224,19 +6225,19 @@
     </row>
     <row r="277" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D277" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I277" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6245,82 +6246,82 @@
     </row>
     <row r="278" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D278" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I278" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MSC_Thigh_L_AccelX</v>
+        <v>MSC_Thigh_L_Accel_X</v>
       </c>
     </row>
     <row r="279" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D279" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I279" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MSC_Thigh_L_AccelY</v>
+        <v>MSC_Thigh_L_Accel_Y</v>
       </c>
     </row>
     <row r="280" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D280" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I280" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MSC_Thigh_L_AccelZ</v>
+        <v>MSC_Thigh_L_Accel_Z</v>
       </c>
     </row>
     <row r="281" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D281" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I281" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6329,19 +6330,19 @@
     </row>
     <row r="282" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D282" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I282" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6350,19 +6351,19 @@
     </row>
     <row r="283" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D283" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I283" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6371,82 +6372,82 @@
     </row>
     <row r="284" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D284" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I284" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MSC_Shank_L_AccelX</v>
+        <v>MSC_Shank_L_Accel_X</v>
       </c>
     </row>
     <row r="285" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D285" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I285" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MSC_Shank_L_AccelY</v>
+        <v>MSC_Shank_L_Accel_Y</v>
       </c>
     </row>
     <row r="286" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D286" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I286" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MSC_Shank_L_AccelZ</v>
+        <v>MSC_Shank_L_Accel_Z</v>
       </c>
     </row>
     <row r="287" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D287" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I287" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6455,19 +6456,19 @@
     </row>
     <row r="288" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D288" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I288" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6476,19 +6477,19 @@
     </row>
     <row r="289" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D289" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I289" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6497,82 +6498,82 @@
     </row>
     <row r="290" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D290" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I290" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MSC_Foot_L_AccelX</v>
+        <v>MSC_Foot_L_Accel_X</v>
       </c>
     </row>
     <row r="291" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D291" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I291" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MSC_Foot_L_AccelY</v>
+        <v>MSC_Foot_L_Accel_Y</v>
       </c>
     </row>
     <row r="292" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D292" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I292" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MSC_Foot_L_AccelZ</v>
+        <v>MSC_Foot_L_Accel_Z</v>
       </c>
     </row>
     <row r="293" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D293" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I293" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6581,19 +6582,19 @@
     </row>
     <row r="294" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D294" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I294" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6602,19 +6603,19 @@
     </row>
     <row r="295" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D295" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I295" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6623,65 +6624,1550 @@
     </row>
     <row r="296" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D296" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I296" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MSC_Pelvis_AccelX</v>
+        <v>MSC_Pelvis_Accel_X</v>
       </c>
     </row>
     <row r="297" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D297" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I297" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MSC_Pelvis_AccelY</v>
+        <v>MSC_Pelvis_Accel_Y</v>
       </c>
     </row>
     <row r="298" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D298" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I298" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MSC_Pelvis_AccelZ</v>
+        <v>MSC_Pelvis_Accel_Z</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A294"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A1:A294"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
